--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\Stark_Industries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotem\Documents\לימודים\שנה ב\פרויקט יסודות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB7BD5C-206F-4DD3-9990-98212CAB2400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF5E35-7075-46F3-9591-0301054EE1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>User_Type</t>
+  </si>
+  <si>
+    <t>player</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -360,32 +363,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
